--- a/data/mesbg_data.xlsx
+++ b/data/mesbg_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder-v2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69297AF9-8175-4CE0-98BF-FD2CD1ACDF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B168A184-5418-4DAD-9552-7C9955EA4F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10144" uniqueCount="2815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10144" uniqueCount="2816">
   <si>
     <t>model_id</t>
   </si>
@@ -9516,6 +9516,9 @@
         "description": "Whilst Bilbo is wearing the One Ring and is Invisible, if he Moves through an enemy model that is holding an Objective Marker in Scenarios where this is relevant, Bilbo may roll a D6; on a 2+, Bilbo immediately gains control of the Objective Marker. Bilbo cannot use this ability if he cannot carry the Objective Marker in question for whatever reason."
     }
 ]</t>
+  </si>
+  <si>
+    <t>[['Arwen', '2:4:2:2'], ['Asfaloth', '0:1:1:1']]</t>
   </si>
 </sst>
 </file>
@@ -10325,10 +10328,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O739"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66:N66"/>
+      <selection pane="bottomLeft" activeCell="O696" sqref="O696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19261,7 +19264,7 @@
       </c>
       <c r="M187" s="9"/>
       <c r="N187" s="9" t="s">
-        <v>81</v>
+        <v>2815</v>
       </c>
       <c r="O187" s="9"/>
     </row>
